--- a/documents/CalculationOfFlat/monthly service charge-march2016.xlsx
+++ b/documents/CalculationOfFlat/monthly service charge-march2016.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="101">
   <si>
     <t>#Sl</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Supriya Roy</t>
   </si>
   <si>
-    <t>4A</t>
-  </si>
-  <si>
     <t>Mansur Choudhury</t>
   </si>
   <si>
@@ -290,6 +287,42 @@
   </si>
   <si>
     <t>Uncle(temporary)</t>
+  </si>
+  <si>
+    <t>3A Dec-15</t>
+  </si>
+  <si>
+    <t>Jharu++</t>
+  </si>
+  <si>
+    <t>Fitkiri</t>
+  </si>
+  <si>
+    <t>water pump</t>
+  </si>
+  <si>
+    <t>holding plate</t>
+  </si>
+  <si>
+    <t>sha</t>
+  </si>
+  <si>
+    <t>water meter</t>
+  </si>
+  <si>
+    <t>bulb</t>
+  </si>
+  <si>
+    <t>lift servicing</t>
+  </si>
+  <si>
+    <t>digel</t>
+  </si>
+  <si>
+    <t>almary</t>
+  </si>
+  <si>
+    <t>4A + 1extra dish</t>
   </si>
 </sst>
 </file>
@@ -676,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,6 +755,9 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" s="5">
+        <v>2100</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
@@ -735,6 +771,9 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="5">
+        <v>2100</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
@@ -748,6 +787,9 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" s="5">
+        <v>2100</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
@@ -761,6 +803,9 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="5">
+        <v>2100</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
@@ -774,6 +819,9 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="5">
+        <v>2100</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
@@ -787,6 +835,9 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
+      <c r="D7" s="5">
+        <v>2100</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
@@ -800,6 +851,9 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="5">
+        <v>2100</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
@@ -813,6 +867,9 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
+      <c r="D9" s="5">
+        <v>2100</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
@@ -826,6 +883,9 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
+      <c r="D10" s="5">
+        <v>2100</v>
+      </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
@@ -839,6 +899,9 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
+      <c r="D11" s="5">
+        <v>2100</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
     </row>
@@ -863,7 +926,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>100</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2500</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
@@ -873,10 +939,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
+      <c r="D14" s="5">
+        <v>2100</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
@@ -886,10 +955,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
-        <v>80</v>
+      <c r="D15" s="5">
+        <v>2100</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
@@ -899,10 +971,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
+      <c r="D16" s="5">
+        <v>2100</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
@@ -912,10 +987,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2600</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
@@ -925,10 +1003,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
+      <c r="D18" s="5">
+        <v>2100</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
@@ -938,10 +1019,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
-        <v>38</v>
+      <c r="D19" s="5">
+        <v>2100</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
@@ -951,10 +1035,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
-        <v>40</v>
+      <c r="D20" s="5">
+        <v>2100</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
@@ -964,10 +1051,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>42</v>
+      <c r="D21" s="5">
+        <v>2100</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
@@ -977,10 +1067,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
-        <v>44</v>
+      <c r="D22" s="5">
+        <v>2100</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
@@ -990,10 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
-        <v>46</v>
+      <c r="D23" s="5">
+        <v>1700</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
@@ -1003,10 +1099,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
-        <v>48</v>
+      <c r="D24" s="5">
+        <v>2100</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
@@ -1016,10 +1115,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
-        <v>50</v>
+      <c r="D25" s="5">
+        <v>2100</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
@@ -1029,10 +1131,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
-        <v>52</v>
+      <c r="D26" s="5">
+        <v>2100</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
@@ -1045,10 +1150,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3000</v>
       </c>
       <c r="E29" s="1"/>
     </row>
@@ -1057,7 +1165,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D30" s="5">
+        <v>6150</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
@@ -1067,7 +1178,10 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D31" s="5">
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1075,7 +1189,10 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D32" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1083,7 +1200,10 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1091,7 +1211,13 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2000</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -1099,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="5">
         <v>500</v>
@@ -1107,36 +1233,36 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D36" s="10">
-        <f>SUM(D28:D35)</f>
-        <v>500</v>
+        <f>SUM(D2:D35)</f>
+        <v>64950</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I37" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I38" s="12">
         <f>D36</f>
-        <v>500</v>
+        <v>64950</v>
       </c>
       <c r="J38" s="12">
         <f>D64</f>
-        <v>34171</v>
+        <v>53441</v>
       </c>
       <c r="K38" s="12">
         <f>I38-J38+M38</f>
-        <v>7370</v>
+        <v>52550</v>
       </c>
       <c r="M38">
         <v>41041</v>
@@ -1144,22 +1270,22 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -1167,9 +1293,11 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D42" s="7">
+        <v>8600</v>
+      </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -1177,7 +1305,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="13">
         <v>42445</v>
@@ -1192,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="7">
@@ -1205,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="7">
@@ -1217,7 +1345,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="7">
@@ -1229,17 +1357,22 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7">
+        <v>500</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
       </c>
       <c r="D48" s="7">
         <v>100</v>
@@ -1250,9 +1383,14 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="7">
+        <v>420</v>
+      </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1260,25 +1398,35 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="7">
+        <v>1670</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="7">
+        <v>620</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="7"/>
     </row>
@@ -1287,19 +1435,17 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="7">
-        <v>5000</v>
-      </c>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="7"/>
@@ -1309,7 +1455,7 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="7">
         <v>100</v>
@@ -1320,25 +1466,58 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="7"/>
+      <c r="D56" s="7">
+        <v>2860</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D57" s="7"/>
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="7">
+        <v>310</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D58" s="7"/>
+      <c r="C58" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="7">
+        <v>150</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D59" s="7"/>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="7">
+        <v>150</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D60" s="7"/>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3990</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D61" s="7"/>
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="7">
+        <v>5000</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D62" s="7"/>
@@ -1348,11 +1527,11 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C64" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" s="6">
         <f>SUM(D42:D63)</f>
-        <v>34171</v>
+        <v>53441</v>
       </c>
     </row>
   </sheetData>
@@ -1380,22 +1559,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
       </c>
       <c r="D2" s="7">
         <v>8600</v>
@@ -1420,10 +1599,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
       </c>
       <c r="D3" s="7">
         <v>7500</v>
@@ -1437,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7">
         <v>351</v>
@@ -1446,12 +1625,12 @@
         <v>42523</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="6">
         <f>SUM(D2:D23)</f>
@@ -1480,13 +1659,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
